--- a/XLOC Level 3.xlsx
+++ b/XLOC Level 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adm-my.sharepoint.com/personal/ryan_park_adm_com/Documents/Pers/XL OC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD488164-0919-1741-9045-FC8DC84CC5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{91CEF611-353B-4A94-B11E-495EF9ECFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE8CF49-6381-499D-95A1-6D867712F7D1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="copy right" sheetId="6" r:id="rId6"/>
     <sheet name="sort and total" sheetId="7" r:id="rId7"/>
     <sheet name="copy, paste special values" sheetId="8" r:id="rId8"/>
+    <sheet name="STOP" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -445,13 +446,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217832</xdr:colOff>
+      <xdr:colOff>217831</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>324069</xdr:colOff>
+      <xdr:colOff>509751</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>43794</xdr:rowOff>
     </xdr:to>
@@ -468,8 +469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2915487" y="3026675"/>
-          <a:ext cx="3478306" cy="1256291"/>
+          <a:off x="2782355" y="2895296"/>
+          <a:ext cx="3497575" cy="1194981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -511,7 +512,7 @@
               <a:effectLst/>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Delete yellow, put red boxes in B2:D9</a:t>
+            <a:t>Delete yellow, put red boxes in B2:C13</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="3200">
             <a:solidFill>
@@ -902,10 +903,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,7 +948,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1049,7 +1054,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,7 +1196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,11 +1206,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C55DA6-4D01-4FB6-9574-A410444C4F7B}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="12" width="4.20703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1220,7 +1230,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1237,7 +1247,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="6">
         <f t="shared" ref="C3:C9" si="1">ROW()*COLUMN()</f>
         <v>9</v>
@@ -1275,7 +1285,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1301,7 +1311,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1327,7 +1337,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1359,7 +1369,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1388,7 +1398,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1414,7 +1424,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1451,7 +1461,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1465,7 +1475,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1479,7 +1489,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1496,7 +1506,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1513,7 +1523,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1533,7 +1543,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1553,7 +1563,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6">
@@ -1588,7 +1598,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6">
@@ -1623,7 +1633,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6">
@@ -1661,7 +1671,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6">
@@ -1699,7 +1709,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6">
@@ -1734,7 +1744,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1757,7 +1767,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1777,7 +1787,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1797,7 +1807,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1814,7 +1824,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1831,7 +1841,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1845,7 +1855,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1859,7 +1869,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1873,7 +1883,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1909,48 +1919,48 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="11"/>
-    <col min="3" max="3" width="9.1640625" style="11"/>
-    <col min="4" max="4" width="8.83203125" style="11"/>
-    <col min="5" max="5" width="9.1640625" style="11"/>
-    <col min="6" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="1" width="9.83984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="11"/>
+    <col min="3" max="3" width="9.15625" style="11"/>
+    <col min="4" max="4" width="8.83984375" style="11"/>
+    <col min="5" max="5" width="9.15625" style="11"/>
+    <col min="6" max="16384" width="8.83984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="8"/>
       <c r="C1" s="2"/>
       <c r="D1" s="8"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="8"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8"/>
@@ -1958,35 +1968,35 @@
       <c r="E5" s="8"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
@@ -1994,35 +2004,35 @@
       <c r="E10" s="8"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
@@ -2030,35 +2040,35 @@
       <c r="E15" s="8"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="8"/>
@@ -2066,35 +2076,35 @@
       <c r="E20" s="8"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="8"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="8"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
@@ -2112,12 +2122,12 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="D1" s="2"/>
@@ -2127,7 +2137,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
@@ -2137,7 +2147,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2"/>
@@ -2150,7 +2160,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
@@ -2163,7 +2173,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
@@ -2176,7 +2186,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
@@ -2189,7 +2199,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
@@ -2202,7 +2212,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
@@ -2215,7 +2225,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
@@ -2228,7 +2238,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
@@ -2241,7 +2251,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2254,7 +2264,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2267,12 +2277,12 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="8"/>
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="8"/>
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
@@ -2287,11 +2297,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED3C6E-B18C-4FF3-81B3-DA0CCACED1C8}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2303,7 +2315,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2315,7 +2327,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="7"/>
@@ -2327,7 +2339,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="3"/>
       <c r="C4" s="7"/>
@@ -2339,7 +2351,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
@@ -2351,7 +2363,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
@@ -2363,7 +2375,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2375,7 +2387,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2387,7 +2399,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
@@ -2399,7 +2411,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="3"/>
@@ -2411,7 +2423,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3"/>
@@ -2423,7 +2435,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
@@ -2435,7 +2447,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2447,7 +2459,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2473,9 +2485,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2496,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
         <v>1</v>
@@ -2493,7 +2505,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
@@ -2502,7 +2514,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2511,7 +2523,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2520,57 +2532,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -2587,9 +2599,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2615,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="14"/>
       <c r="C3" s="12" t="s">
         <v>1</v>
@@ -2617,7 +2629,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="12" t="s">
@@ -2631,7 +2643,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2660,9 +2672,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>895.97678244957115</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>702.17924129382084</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>922.73717092200377</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>83.301398412221388</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>550.69297944391508</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>360.64493972644652</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>922.52942293395449</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>629.93077810467582</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>926.73590141839384</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>147.66631752252502</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>719.4483352706734</v>
       </c>
@@ -2716,7 +2728,7 @@
         <v>500.81516687545968</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <v>834.58719397776599</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>280.94547697594709</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <v>346.84440682561956</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>820.74749485392738</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>284.18316512867079</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>853.10127790885372</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <v>471.19634304806078</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>129.60969786259281</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>752.2821061088157</v>
       </c>
@@ -2786,7 +2798,7 @@
         <v>149.21771946343264</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13">
         <v>396.68341943446029</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>315.08975299634466</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="16"/>
       <c r="C14">
         <v>589.2567111829859</v>
@@ -2810,7 +2822,7 @@
         <v>594.49569279312357</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C15">
         <v>447.02747873608695</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>749.80529486146338</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C16">
         <v>341.99589283643849</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>125.34423912433745</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C17">
         <v>150.33437596848574</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>161.45058420849611</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C18">
         <v>682.20544929999778</v>
       </c>
@@ -2842,7 +2854,7 @@
         <v>966.5386619957593</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="16"/>
       <c r="F19" s="16"/>
     </row>
@@ -2875,9 +2887,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>766.72220643727007</v>
       </c>
@@ -2888,7 +2900,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
         <f>B2+D6</f>
         <v>1137.0508022632487</v>
@@ -2897,7 +2909,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <f>A4+C5</f>
         <v>146.63286978468338</v>
@@ -2909,7 +2921,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
         <v>146.63286978468338</v>
       </c>
@@ -2917,7 +2929,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>559.65393842715412</v>
       </c>
@@ -2929,7 +2941,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C7">
         <v>370.32859582597854</v>
       </c>
@@ -2937,7 +2949,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <f>A8+C9</f>
         <v>300.46105717422478</v>
@@ -2949,7 +2961,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C9">
         <v>300.46105717422478</v>
       </c>
@@ -2957,7 +2969,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <v>491.51248528286197</v>
       </c>
@@ -2969,7 +2981,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C11">
         <v>257.26605160464101</v>
       </c>
@@ -2977,7 +2989,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <v>782.05417894054381</v>
       </c>
@@ -2988,7 +3000,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C13">
         <v>399.38955219306138</v>
       </c>
@@ -2996,7 +3008,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3004,7 +3016,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3012,7 +3024,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3020,7 +3032,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3028,7 +3040,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3036,7 +3048,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3044,7 +3056,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3052,7 +3064,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3060,7 +3072,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3068,7 +3080,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3076,7 +3088,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3084,7 +3096,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3096,4 +3108,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1550E8B-6526-4036-AF64-54910C703502}">
+  <dimension ref="A2:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="3" max="5" width="5.47265625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.83984375" style="5"/>
+    <col min="7" max="7" width="3.7890625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.734375" style="5" customWidth="1"/>
+    <col min="9" max="20" width="3.3125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="4.5234375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="3.3125" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="8.83984375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="5">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5">
+        <v>78</v>
+      </c>
+      <c r="G3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="H3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="J3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>33</v>
+      </c>
+      <c r="L3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>36</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N9" si="0">ROW()*COLUMN()</f>
+        <v>42</v>
+      </c>
+      <c r="O3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>45</v>
+      </c>
+      <c r="P3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>48</v>
+      </c>
+      <c r="R3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>54</v>
+      </c>
+      <c r="S3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>57</v>
+      </c>
+      <c r="T3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>60</v>
+      </c>
+      <c r="V3" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K9" si="1">ROW()*COLUMN()</f>
+        <v>44</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P9" si="2">ROW()*COLUMN()</f>
+        <v>64</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" ref="R4:R9" si="3">ROW()*COLUMN()</f>
+        <v>72</v>
+      </c>
+      <c r="T4" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>80</v>
+      </c>
+      <c r="V4" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5">
+        <v>78</v>
+      </c>
+      <c r="G5" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>35</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="T5" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>100</v>
+      </c>
+      <c r="V5" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>78</v>
+      </c>
+      <c r="B6" s="5">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5">
+        <v>78</v>
+      </c>
+      <c r="D6" s="5">
+        <v>78</v>
+      </c>
+      <c r="G6" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>42</v>
+      </c>
+      <c r="H6" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>48</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="S6" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>114</v>
+      </c>
+      <c r="T6" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>120</v>
+      </c>
+      <c r="V6" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5">
+        <v>78</v>
+      </c>
+      <c r="H7" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>56</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="V7" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5">
+        <v>78</v>
+      </c>
+      <c r="H8" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>64</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>78</v>
+      </c>
+      <c r="C9" s="5">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5">
+        <v>78</v>
+      </c>
+      <c r="G9" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>63</v>
+      </c>
+      <c r="H9" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>72</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="O9" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>135</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="V9" s="5">
+        <f>ROW()*COLUMN()</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5">
+        <v>78</v>
+      </c>
+      <c r="C10" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5">
+        <v>78</v>
+      </c>
+      <c r="C11" s="5">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:D11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:T9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XLOC Level 3.xlsx
+++ b/XLOC Level 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adm-my.sharepoint.com/personal/ryan_park_adm_com/Documents/Pers/XL OC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{91CEF611-353B-4A94-B11E-495EF9ECFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE8CF49-6381-499D-95A1-6D867712F7D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B210B71-5470-470D-B8A5-1C15E3255FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A35E37D-4B1F-4E03-9E89-DA48F8647417}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="9" r:id="rId1"/>
@@ -136,21 +136,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -172,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -182,22 +173,17 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217831</xdr:colOff>
+      <xdr:colOff>217830</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>136330</xdr:rowOff>
+      <xdr:rowOff>136329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>509751</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43794</xdr:rowOff>
+      <xdr:colOff>584637</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -469,8 +455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2782355" y="2895296"/>
-          <a:ext cx="3497575" cy="1194981"/>
+          <a:off x="2582658" y="2993829"/>
+          <a:ext cx="3322841" cy="1584739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,9 +620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>188302</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>130419</xdr:rowOff>
+      <xdr:colOff>146958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -651,8 +637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1641231" y="1311519"/>
-          <a:ext cx="3412148" cy="2819400"/>
+          <a:off x="1611505" y="1311519"/>
+          <a:ext cx="3281624" cy="1584081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,8 +717,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>180147</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -747,8 +733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5405783" y="82826"/>
-          <a:ext cx="2851564" cy="5187673"/>
+          <a:off x="4745383" y="82826"/>
+          <a:ext cx="2521364" cy="5851249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,8 +813,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -843,8 +829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="228599"/>
-          <a:ext cx="3419475" cy="3800475"/>
+          <a:off x="6600825" y="228599"/>
+          <a:ext cx="3324225" cy="4619626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,14 +889,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -948,7 +930,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1054,7 +1036,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1196,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1204,19 +1186,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C55DA6-4D01-4FB6-9574-A410444C4F7B}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="12" width="4.20703125" customWidth="1"/>
+    <col min="2" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9"/>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1228,9 +1210,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1239,194 +1221,197 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6">
-        <f t="shared" ref="L2:L7" si="0">ROW()*COLUMN()</f>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:K7" si="0">ROW()*COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B9" si="1">ROW()*COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G8" si="2">ROW()*COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="H3" s="6">
+        <f>ROW()*COLUMN()</f>
         <v>24</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C9" si="1">ROW()*COLUMN()</f>
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>15</v>
-      </c>
-      <c r="F3" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>18</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H8" si="2">ROW()*COLUMN()</f>
-        <v>24</v>
-      </c>
       <c r="I3" s="6">
         <f>ROW()*COLUMN()</f>
         <v>27</v>
       </c>
-      <c r="J3" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>30</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6">
+      <c r="J3" s="5"/>
+      <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="6">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6">
-        <f t="shared" ref="J4:J9" si="3">ROW()*COLUMN()</f>
-        <v>40</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I9" si="3">ROW()*COLUMN()</f>
+        <v>36</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="6">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="G5" s="6">
         <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>35</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
+        <f>ROW()*COLUMN()</f>
         <v>40</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>30</v>
-      </c>
-      <c r="F6" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>36</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>42</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="6">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>48</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="C9" s="6">
-        <f t="shared" si="1"/>
+        <f>ROW()*COLUMN()</f>
         <v>27</v>
       </c>
       <c r="D9" s="6">
@@ -1437,31 +1422,28 @@
         <f>ROW()*COLUMN()</f>
         <v>45</v>
       </c>
-      <c r="F9" s="6">
-        <f>ROW()*COLUMN()</f>
-        <v>54</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6">
+        <f>ROW()*COLUMN()</f>
+        <v>63</v>
+      </c>
       <c r="H9" s="6">
         <f>ROW()*COLUMN()</f>
         <v>72</v>
       </c>
       <c r="I9" s="6">
-        <f>ROW()*COLUMN()</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6">
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
         <v>1</v>
       </c>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1473,9 +1455,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1487,87 +1469,90 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
-        <f t="shared" ref="I12:L25" si="4">ROW()*COLUMN()</f>
-        <v>108</v>
-      </c>
+      <c r="H12" s="6">
+        <f t="shared" ref="H12:K25" si="4">ROW()*COLUMN()</f>
+        <v>96</v>
+      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="6">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
       <c r="I14" s="6">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="J14" s="6">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="6">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
       <c r="I15" s="6">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:G20" si="5">ROW()*COLUMN()</f>
+        <v>64</v>
+      </c>
       <c r="E16" s="6">
-        <f t="shared" ref="E16:H20" si="5">ROW()*COLUMN()</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="F16" s="6">
@@ -1579,7 +1564,7 @@
         <v>112</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="I16" s="6">
@@ -1590,17 +1575,17 @@
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="K16" s="6">
-        <f t="shared" si="4"/>
-        <v>176</v>
-      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
       <c r="E17" s="6">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -1614,7 +1599,7 @@
         <v>119</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="I17" s="6">
@@ -1625,17 +1610,17 @@
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="4"/>
-        <v>187</v>
-      </c>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
       <c r="E18" s="6">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -1649,7 +1634,7 @@
         <v>126</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="I18" s="6">
@@ -1664,16 +1649,16 @@
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="L18" s="6">
-        <f t="shared" si="4"/>
-        <v>216</v>
-      </c>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
       <c r="E19" s="6">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -1687,7 +1672,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="I19" s="6">
@@ -1702,16 +1687,16 @@
         <f t="shared" si="4"/>
         <v>209</v>
       </c>
-      <c r="L19" s="6">
-        <f t="shared" si="4"/>
-        <v>228</v>
-      </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
       <c r="E20" s="6">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -1725,7 +1710,7 @@
         <v>140</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="I20" s="6">
@@ -1736,21 +1721,21 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K20" s="6">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="6">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
       <c r="I21" s="6">
         <f t="shared" si="4"/>
         <v>189</v>
@@ -1759,89 +1744,86 @@
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="K21" s="6">
-        <f t="shared" si="4"/>
-        <v>231</v>
-      </c>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="6">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
       <c r="I22" s="6">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="J22" s="6">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="6">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
       <c r="I23" s="6">
         <f t="shared" si="4"/>
         <v>207</v>
       </c>
-      <c r="J23" s="6">
-        <f t="shared" si="4"/>
-        <v>230</v>
-      </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="4"/>
-        <v>216</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1853,9 +1835,9 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1867,9 +1849,9 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1881,9 +1863,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1895,10 +1877,9 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E16:K20 I12:I15 J14:J15 L18:L19 I21:K21 I22:J23 I24:I25 C4:C9 D9:F9 F6:F8 E6 H3:H9 I9:J9 J3:J8 I3 L2:L7 L9 C3:F3">
+  <conditionalFormatting sqref="D16:J20 H12:H15 I14:I15 K18:K19 H21:J21 H22:I23 H24:H25 B4:B9 C9:E9 E6:E8 D6 G3:G9 H9:I9 I3:I8 H3 K2:K7 K9 B3:E3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1922,189 +1903,182 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="11"/>
-    <col min="3" max="3" width="9.15625" style="11"/>
-    <col min="4" max="4" width="8.83984375" style="11"/>
-    <col min="5" max="5" width="9.15625" style="11"/>
-    <col min="6" max="16384" width="8.83984375" style="11"/>
+    <col min="1" max="1" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625"/>
+    <col min="5" max="5" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8"/>
       <c r="C1" s="2"/>
       <c r="D1" s="8"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2"/>
       <c r="D2" s="8"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
       <c r="D4" s="8"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="8"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
       <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="8"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
       <c r="D15" s="2"/>
       <c r="E15" s="8"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
       <c r="D17" s="8"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
       <c r="D18" s="8"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="8"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
       <c r="D22" s="8"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="8"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="8"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
@@ -2125,9 +2099,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="D1" s="2"/>
@@ -2137,7 +2111,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
@@ -2147,7 +2121,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2"/>
@@ -2160,7 +2134,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2"/>
@@ -2173,7 +2147,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
@@ -2186,7 +2160,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="8"/>
@@ -2199,7 +2173,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
@@ -2212,7 +2186,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
@@ -2225,7 +2199,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
@@ -2238,7 +2212,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
@@ -2251,7 +2225,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2264,7 +2238,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2277,12 +2251,12 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="F13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="F14" s="8"/>
       <c r="I14" s="8"/>
@@ -2301,9 +2275,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2315,7 +2289,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2327,7 +2301,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="7"/>
@@ -2339,7 +2313,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="3"/>
       <c r="C4" s="7"/>
@@ -2351,7 +2325,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="7"/>
@@ -2363,7 +2337,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
@@ -2375,7 +2349,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2387,7 +2361,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2399,7 +2373,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
@@ -2411,7 +2385,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="3"/>
@@ -2423,7 +2397,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="3"/>
@@ -2435,7 +2409,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
@@ -2447,7 +2421,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2459,7 +2433,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2485,105 +2459,105 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F15" s="12"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2593,70 +2567,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8B2A98-D968-4EE3-A9D0-1C25381D0EB4}">
-  <dimension ref="B2:L5"/>
+  <dimension ref="B2:K5"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="14"/>
-      <c r="C3" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,9 +2645,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>895.97678244957115</v>
       </c>
@@ -2682,7 +2655,7 @@
         <v>702.17924129382084</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>922.73717092200377</v>
       </c>
@@ -2690,7 +2663,7 @@
         <v>83.301398412221388</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>550.69297944391508</v>
       </c>
@@ -2698,7 +2671,7 @@
         <v>360.64493972644652</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>922.52942293395449</v>
       </c>
@@ -2706,7 +2679,7 @@
         <v>629.93077810467582</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>926.73590141839384</v>
       </c>
@@ -2714,7 +2687,7 @@
         <v>147.66631752252502</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>719.4483352706734</v>
       </c>
@@ -2728,7 +2701,7 @@
         <v>500.81516687545968</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>834.58719397776599</v>
       </c>
@@ -2742,7 +2715,7 @@
         <v>280.94547697594709</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>346.84440682561956</v>
       </c>
@@ -2756,7 +2729,7 @@
         <v>820.74749485392738</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>284.18316512867079</v>
       </c>
@@ -2770,7 +2743,7 @@
         <v>853.10127790885372</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>471.19634304806078</v>
       </c>
@@ -2784,7 +2757,7 @@
         <v>129.60969786259281</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>752.2821061088157</v>
       </c>
@@ -2798,7 +2771,7 @@
         <v>149.21771946343264</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>396.68341943446029</v>
       </c>
@@ -2812,17 +2785,17 @@
         <v>315.08975299634466</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="16"/>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
       <c r="C14">
         <v>589.2567111829859</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="13"/>
       <c r="F14">
         <v>594.49569279312357</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>447.02747873608695</v>
       </c>
@@ -2830,7 +2803,7 @@
         <v>749.80529486146338</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>341.99589283643849</v>
       </c>
@@ -2838,7 +2811,7 @@
         <v>125.34423912433745</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>150.33437596848574</v>
       </c>
@@ -2846,7 +2819,7 @@
         <v>161.45058420849611</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>682.20544929999778</v>
       </c>
@@ -2854,9 +2827,9 @@
         <v>966.5386619957593</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C19" s="16"/>
-      <c r="F19" s="16"/>
+    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F7:F18">
@@ -2887,9 +2860,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>766.72220643727007</v>
       </c>
@@ -2900,7 +2873,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>B2+D6</f>
         <v>1137.0508022632487</v>
@@ -2909,7 +2882,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>A4+C5</f>
         <v>146.63286978468338</v>
@@ -2921,7 +2894,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>146.63286978468338</v>
       </c>
@@ -2929,7 +2902,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>559.65393842715412</v>
       </c>
@@ -2941,7 +2914,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>370.32859582597854</v>
       </c>
@@ -2949,7 +2922,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>A8+C9</f>
         <v>300.46105717422478</v>
@@ -2961,7 +2934,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>300.46105717422478</v>
       </c>
@@ -2969,7 +2942,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>491.51248528286197</v>
       </c>
@@ -2981,7 +2954,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>257.26605160464101</v>
       </c>
@@ -2989,7 +2962,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>782.05417894054381</v>
       </c>
@@ -3000,7 +2973,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>399.38955219306138</v>
       </c>
@@ -3008,7 +2981,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3016,7 +2989,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3024,7 +2997,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3032,7 +3005,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3040,7 +3013,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3048,7 +3021,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3056,7 +3029,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3064,7 +3037,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3072,7 +3045,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3080,7 +3053,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -3088,7 +3061,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3096,7 +3069,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3118,21 +3091,21 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="5" width="5.47265625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.83984375" style="5"/>
-    <col min="7" max="7" width="3.7890625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.734375" style="5" customWidth="1"/>
-    <col min="9" max="20" width="3.3125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="4.5234375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="3.3125" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="5" width="5.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="5"/>
+    <col min="7" max="7" width="3.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="5" customWidth="1"/>
+    <col min="9" max="20" width="3.28515625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>78</v>
       </c>
@@ -3140,7 +3113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>78</v>
       </c>
@@ -3196,7 +3169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>78</v>
       </c>
@@ -3238,7 +3211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>78</v>
       </c>
@@ -3280,7 +3253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>78</v>
       </c>
@@ -3330,7 +3303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>78</v>
       </c>
@@ -3368,7 +3341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>78</v>
       </c>
@@ -3402,7 +3375,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>78</v>
       </c>
@@ -3448,7 +3421,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>78</v>
       </c>
@@ -3456,7 +3429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>78</v>
       </c>
